--- a/experiment_results/best_case/Elevator/1wise/1_best_case.xlsx
+++ b/experiment_results/best_case/Elevator/1wise/1_best_case.xlsx
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H2">
         <v>449</v>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>449</v>
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="H4">
         <v>449</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H5">
         <v>449</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="H7">
         <v>449</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="H10">
         <v>449</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="H11">
         <v>449</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>449</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H13">
         <v>449</v>
@@ -928,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>163</v>
+        <v>232</v>
       </c>
       <c r="H15">
         <v>449</v>
@@ -960,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H16">
         <v>449</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H19">
         <v>449</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="H21">
         <v>449</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H23">
         <v>449</v>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="H24">
         <v>449</v>
@@ -1389,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H2">
         <v>449</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H5">
         <v>449</v>
@@ -1549,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="H7">
         <v>449</v>
@@ -1645,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H10">
         <v>449</v>
@@ -1677,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H11">
         <v>449</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>449</v>
@@ -1741,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H13">
         <v>449</v>
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H15">
         <v>449</v>
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H18">
         <v>449</v>
@@ -1997,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H21">
         <v>449</v>
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H24">
         <v>449</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H2">
         <v>449</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H5">
         <v>449</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="H7">
         <v>449</v>
@@ -2522,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H10">
         <v>449</v>
@@ -2554,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H11">
         <v>449</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>449</v>
@@ -2618,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H13">
         <v>449</v>
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H16">
         <v>449</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H18">
         <v>449</v>
@@ -2874,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H21">
         <v>449</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="H24">
         <v>449</v>
@@ -3143,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H2">
         <v>449</v>
@@ -3175,7 +3175,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>449</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="H4">
         <v>449</v>
@@ -3239,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H5">
         <v>449</v>
@@ -3303,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="H7">
         <v>449</v>
@@ -3399,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="H10">
         <v>449</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="H11">
         <v>449</v>
@@ -3463,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>449</v>
@@ -3495,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H13">
         <v>449</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>163</v>
+        <v>232</v>
       </c>
       <c r="H15">
         <v>449</v>
@@ -3591,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H16">
         <v>449</v>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H19">
         <v>449</v>
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="H21">
         <v>449</v>
@@ -3815,7 +3815,7 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H23">
         <v>449</v>
@@ -3847,7 +3847,7 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="H24">
         <v>449</v>
@@ -4020,7 +4020,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H2">
         <v>449</v>
@@ -4116,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H5">
         <v>449</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="H7">
         <v>449</v>
@@ -4276,7 +4276,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H10">
         <v>449</v>
@@ -4308,7 +4308,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H11">
         <v>449</v>
@@ -4340,7 +4340,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>449</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H13">
         <v>449</v>
@@ -4500,7 +4500,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H17">
         <v>449</v>
@@ -4532,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H18">
         <v>449</v>
@@ -4628,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H21">
         <v>449</v>
@@ -4724,7 +4724,7 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H24">
         <v>449</v>
@@ -4756,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="H25">
         <v>449</v>
